--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\BCIT Work Synced Folder\My Courses\COMP3522 OOP 2\Winter 2020\Assignments\Assignment 2 Supply Chain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorji/Documents/GitHub/Comp3522/assignment-2---the-supply-chain-nash-and-taylor_assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F959E200-ABA9-4C24-84DC-7F0EB85250A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A448FFDA-028D-8543-9304-3260498FEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -663,34 +667,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC969572-FB28-418E-B89D-F0DD002AE5AA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="56.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -764,7 +768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -799,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -834,7 +838,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -869,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -904,7 +908,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -945,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -977,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1260,13 +1264,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="1"/>
     </row>
   </sheetData>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorji/Documents/GitHub/Comp3522/assignment-2---the-supply-chain-nash-and-taylor_assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A448FFDA-028D-8543-9304-3260498FEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2742F-E314-6A4B-B71F-18DE4A495FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Sea Salt</t>
+  </si>
+  <si>
+    <t>GJ</t>
   </si>
 </sst>
 </file>
@@ -667,9 +670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC969572-FB28-418E-B89D-F0DD002AE5AA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:C24"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,7 +794,7 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>5</v>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorji/Documents/GitHub/Comp3522/assignment-2---the-supply-chain-nash-and-taylor_assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2742F-E314-6A4B-B71F-18DE4A495FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA69DC2-189B-2B42-82AA-2193AF134FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>Sea Salt</t>
-  </si>
-  <si>
-    <t>GJ</t>
   </si>
 </sst>
 </file>
@@ -670,9 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC969572-FB28-418E-B89D-F0DD002AE5AA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="173" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>5</v>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorji/Documents/GitHub/Comp3522/assignment-2---the-supply-chain-nash-and-taylor_assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA69DC2-189B-2B42-82AA-2193AF134FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE3389D-FE30-5D49-AA5E-10E1552783B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,9 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC969572-FB28-418E-B89D-F0DD002AE5AA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="173" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorji/Documents/GitHub/Comp3522/assignment-2---the-supply-chain-nash-and-taylor_assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE3389D-FE30-5D49-AA5E-10E1552783B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB94546-EDCE-074D-9311-37386572DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="28800" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Sea Salt</t>
+  </si>
+  <si>
+    <t>Mr. Hoppers_2</t>
   </si>
 </sst>
 </file>
@@ -665,11 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC969572-FB28-418E-B89D-F0DD002AE5AA}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1264,14 +1267,148 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
+    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>30</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorji/Documents/GitHub/Comp3522/assignment-2---the-supply-chain-nash-and-taylor_assign2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB94546-EDCE-074D-9311-37386572DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47768457-7D39-E844-BF4A-98678366D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="28800" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{B319D853-5A99-4F7A-80BD-54EAB27A7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Mr. Hoppers_2</t>
+  </si>
+  <si>
+    <t>ji</t>
   </si>
 </sst>
 </file>
@@ -668,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC969572-FB28-418E-B89D-F0DD002AE5AA}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -820,7 +823,7 @@
         <v>58</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -925,7 +928,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -1403,10 +1406,48 @@
       <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="K19">
-        <v>4</v>
+      <c r="K19" t="s">
+        <v>93</v>
       </c>
       <c r="M19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20">
         <v>10</v>
       </c>
     </row>
